--- a/similarities/split_global/harmonic_similarity_timestamps_36.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E/4']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.232000', '0:00:40.821000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
+          <t>('0:00:55.860352', '0:01:03.046928')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:39.160000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:11.280000', '0:00:15.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=39.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=11.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:14.983242')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:00:40.340000', '0:00:42.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.34</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db'], ['Eb:7', 'Ab', 'Db', 'Ab']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C'], ['D:7', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000'), ('0:01:54.760000', '0:02:02.570000')]</t>
+          <t>('0:00:40.640000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:26.402834'), ('0:00:57.401473', '0:01:02.625963')]</t>
+          <t>('0:00:37.940000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=114.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:min', 'B:dim7'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'D:dim7'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.880000', '0:00:18.680000'), ('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.330000', '0:00:09.900000'), ('0:00:15.880000', '0:00:17.370000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=14.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=6.33', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+          <t>('0:00:32.200000', '0:00:38.620000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/3', 'D', 'A']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:34.975070', '0:00:47.386136')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:08.800000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=34.97507']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=61.8']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:01:21.850000', '0:01:27.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:48.170328', '0:00:55.589104')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:09.940000'), ('0:00:30.940000', '0:00:40.540000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:01:00.680000', '0:01:03.420000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=30.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
+          <t>('0:00:08.340000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.660000', '0:00:09.640000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:57.777619', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:24.615000', '0:04:33.028000'), ('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:00:00.497838', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=0.497838</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.080000', '0:00:24.060000')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=17.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
